--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnlou\OneDrive\Documents\EMSI 3EME\2eme semestre\PFA\Projet Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1990B-B694-4C62-A2BC-E5DFE765BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44AF5EE-6204-4902-8431-71612225E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="5028" windowWidth="17280" windowHeight="8880" xr2:uid="{918A8658-EAC3-4297-A8DF-7ACA680C528C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{918A8658-EAC3-4297-A8DF-7ACA680C528C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+      <selection activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">IF(A2&lt;&gt;"",NOW(),"")</f>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H11" ca="1" si="0">IF(A3&lt;&gt;"",NOW(),"")</f>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,7 +679,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -760,18 +760,35 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45790.402325925927</v>
+        <v>45811.810872106478</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12" ca="1" si="1">IF(A12&lt;&gt;"",NOW(),"")</f>
+        <v>45811.810872106478</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
